--- a/Clean data sheets/Larval respiration.xlsx
+++ b/Clean data sheets/Larval respiration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC772BA6-CEAD-4148-B3EA-A1A618B2A48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C673A655-0F4C-074C-8A3C-90915DC537C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="1520" windowWidth="24640" windowHeight="13240" xr2:uid="{35FCFB1E-2A67-C44E-AEF2-6D9A41472197}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{35FCFB1E-2A67-C44E-AEF2-6D9A41472197}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Acidic</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -429,10 +429,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2.5802666666666666E-3</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4.199466666666667E-3</v>
@@ -451,10 +451,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3.1962666666666669E-3</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
       <c r="C5">
         <v>3.3858666666666667E-3</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
       <c r="C6">
         <v>3.2506666666666665E-3</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
       <c r="C7">
         <v>3.0754666666666665E-3</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>3.6093333333333329E-3</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>3.4018666666666671E-3</v>
@@ -517,10 +517,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>3.0605333333333334E-3</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2.2349333333333333E-3</v>
@@ -539,10 +539,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>4.1085333333333333E-3</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2.577866666666667E-3</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>4.1399999999999996E-3</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>3.1218666666666672E-3</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>3.4130666666666669E-3</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>3.3970666666666666E-3</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>2.167733333333333E-3</v>
@@ -616,10 +616,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>3.4391999999999995E-3</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>2.7991999999999995E-3</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>4.1245333333333337E-3</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>2.9336000000000002E-3</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>4.0066666666666671E-3</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>3.464266666666666E-3</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>2.7602666666666663E-3</v>
